--- a/src/main/resources/gsis/excel/jgAtitle/a04.xlsx
+++ b/src/main/resources/gsis/excel/jgAtitle/a04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/문서/2021/15.성인지통계DB포털/샘플/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/문서/2021/15.성인지통계DB포털/테마통계/FW_ 테마통계 재작업/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA295B9-E698-F141-987C-940DC175402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9223142D-0005-A140-9BBC-22F6BEEE7731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40120" yWindow="4800" windowWidth="31400" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39720" yWindow="3100" windowWidth="30560" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="10">
   <si>
     <t>전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,18 +133,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -429,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -467,13 +464,13 @@
       <c r="C2" s="2">
         <v>5657</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>3017</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>5.3</v>
       </c>
     </row>
@@ -487,13 +484,13 @@
       <c r="C3" s="2">
         <v>2728</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
+      <c r="D3" s="1">
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>1454</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -507,13 +504,13 @@
       <c r="C4" s="2">
         <v>2929</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>1563</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -527,13 +524,13 @@
       <c r="C5" s="2">
         <v>5628</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>9.9</v>
       </c>
       <c r="E5" s="2">
         <v>3021</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>5.3</v>
       </c>
     </row>
@@ -547,13 +544,13 @@
       <c r="C6" s="2">
         <v>2737</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2">
         <v>1407</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -567,13 +564,493 @@
       <c r="C7" s="2">
         <v>2891</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>1614</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5992</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3238</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2946</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1492</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3046</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1746</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5526</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3317</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2694</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1539</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2832</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1778</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5526</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2694</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1558</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2832</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1742</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5600</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3339</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2684</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1570</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2916</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1769</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5494</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3542</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2640</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1690</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2854</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1852</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5037</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3738</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2426</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1703</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2611</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2035</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4781</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3912</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2426</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1883</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2443</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2029</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3959</v>
+      </c>
+      <c r="F29" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2228</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1837</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2272</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2122</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
